--- a/production/sku_3.xlsx
+++ b/production/sku_3.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\PycharmProjects\SBProduction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\PycharmProjects\SBProduction\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D099F978-86C3-4247-AD3E-174B23D43F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2338D-4755-4A6A-BFC5-BDA5FF433704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{9E050193-1E7F-4668-881A-503FD14D215D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="1" activeTab="4" xr2:uid="{9E050193-1E7F-4668-881A-503FD14D215D}"/>
   </bookViews>
   <sheets>
     <sheet name="types" sheetId="1" r:id="rId1"/>
     <sheet name="families" sheetId="2" r:id="rId2"/>
     <sheet name="products" sheetId="3" r:id="rId3"/>
     <sheet name="materials" sheetId="4" r:id="rId4"/>
+    <sheet name="BOM Data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -620,36 +621,15 @@
     <t>משקוף שטוף 18x220 לבן</t>
   </si>
   <si>
-    <t>mln_fs10220</t>
-  </si>
-  <si>
-    <t>mln_fs12220</t>
-  </si>
-  <si>
-    <t>mln_fs14220</t>
-  </si>
-  <si>
-    <t>mln_fs16220</t>
-  </si>
-  <si>
-    <t>mln_fs18220</t>
-  </si>
-  <si>
     <t>משקוף פלץ 10x207 לבן</t>
   </si>
   <si>
-    <t>mln_ff10207</t>
-  </si>
-  <si>
     <t>frm_flz</t>
   </si>
   <si>
     <t>משקוף אקוסטי 10x220 לבן</t>
   </si>
   <si>
-    <t>mln_fa10220</t>
-  </si>
-  <si>
     <t>frm_acusti</t>
   </si>
   <si>
@@ -668,12 +648,6 @@
     <t>משקוף אלומוניום 6x600 לבן</t>
   </si>
   <si>
-    <t>mln_fcs10220</t>
-  </si>
-  <si>
-    <t>mln_fws10220</t>
-  </si>
-  <si>
     <t>frm_wsurf</t>
   </si>
   <si>
@@ -684,6 +658,258 @@
   </si>
   <si>
     <t>אורן 38</t>
+  </si>
+  <si>
+    <t>משקוף אלומוניום 8x600 שחור</t>
+  </si>
+  <si>
+    <t>mln_fws6600w</t>
+  </si>
+  <si>
+    <t>mln_fen8600b</t>
+  </si>
+  <si>
+    <t>mln_fs10220w</t>
+  </si>
+  <si>
+    <t>mln_fs12220w</t>
+  </si>
+  <si>
+    <t>mln_fs14220w</t>
+  </si>
+  <si>
+    <t>mln_fs16220w</t>
+  </si>
+  <si>
+    <t>mln_fs18220w</t>
+  </si>
+  <si>
+    <t>mln_ff10207w</t>
+  </si>
+  <si>
+    <t>mln_fa10220w</t>
+  </si>
+  <si>
+    <t>mln_fcs10220w</t>
+  </si>
+  <si>
+    <t>frm_en</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>cover_material</t>
+  </si>
+  <si>
+    <t>mdl_65</t>
+  </si>
+  <si>
+    <t>mdl_64</t>
+  </si>
+  <si>
+    <t>mdl_63</t>
+  </si>
+  <si>
+    <t>mdl_62</t>
+  </si>
+  <si>
+    <t>filling_material</t>
+  </si>
+  <si>
+    <t>mdl_61</t>
+  </si>
+  <si>
+    <t>mdl_60</t>
+  </si>
+  <si>
+    <t>mdl_59</t>
+  </si>
+  <si>
+    <t>mdl_58</t>
+  </si>
+  <si>
+    <t>mdl_57</t>
+  </si>
+  <si>
+    <t>mdl_56</t>
+  </si>
+  <si>
+    <t>mdl_55</t>
+  </si>
+  <si>
+    <t>mdl_54</t>
+  </si>
+  <si>
+    <t>mdl_53</t>
+  </si>
+  <si>
+    <t>mdl_52</t>
+  </si>
+  <si>
+    <t>mdl_51</t>
+  </si>
+  <si>
+    <t>mdl_50</t>
+  </si>
+  <si>
+    <t>mdl_49</t>
+  </si>
+  <si>
+    <t>mdl_48</t>
+  </si>
+  <si>
+    <t>mdl_47</t>
+  </si>
+  <si>
+    <t>mdl_46</t>
+  </si>
+  <si>
+    <t>mdl_45</t>
+  </si>
+  <si>
+    <t>mdl_44</t>
+  </si>
+  <si>
+    <t>mdl_43</t>
+  </si>
+  <si>
+    <t>mdl_42</t>
+  </si>
+  <si>
+    <t>mdl_41</t>
+  </si>
+  <si>
+    <t>mdl_40</t>
+  </si>
+  <si>
+    <t>mdl_39</t>
+  </si>
+  <si>
+    <t>mdl_38</t>
+  </si>
+  <si>
+    <t>mdl_37</t>
+  </si>
+  <si>
+    <t>mdl_36</t>
+  </si>
+  <si>
+    <t>mdl_35</t>
+  </si>
+  <si>
+    <t>mdl_34</t>
+  </si>
+  <si>
+    <t>mdl_33</t>
+  </si>
+  <si>
+    <t>mdl_32</t>
+  </si>
+  <si>
+    <t>mdl_31</t>
+  </si>
+  <si>
+    <t>mdl_30</t>
+  </si>
+  <si>
+    <t>mdl_29</t>
+  </si>
+  <si>
+    <t>mdl_28</t>
+  </si>
+  <si>
+    <t>mdl_27</t>
+  </si>
+  <si>
+    <t>mdl_26</t>
+  </si>
+  <si>
+    <t>mdl_25</t>
+  </si>
+  <si>
+    <t>mdl_24</t>
+  </si>
+  <si>
+    <t>mdl_23</t>
+  </si>
+  <si>
+    <t>mdl_22</t>
+  </si>
+  <si>
+    <t>mdl_21</t>
+  </si>
+  <si>
+    <t>mdl_20</t>
+  </si>
+  <si>
+    <t>mdl_19</t>
+  </si>
+  <si>
+    <t>mdl_18</t>
+  </si>
+  <si>
+    <t>mdl_17</t>
+  </si>
+  <si>
+    <t>mdl_16</t>
+  </si>
+  <si>
+    <t>mdl_15</t>
+  </si>
+  <si>
+    <t>mdl_14</t>
+  </si>
+  <si>
+    <t>mdl_13</t>
+  </si>
+  <si>
+    <t>mdl_12</t>
+  </si>
+  <si>
+    <t>mdl_11</t>
+  </si>
+  <si>
+    <t>mdl_10</t>
+  </si>
+  <si>
+    <t>mdl_9</t>
+  </si>
+  <si>
+    <t>mdl_8</t>
+  </si>
+  <si>
+    <t>mdl_7</t>
+  </si>
+  <si>
+    <t>mdl_6</t>
+  </si>
+  <si>
+    <t>mdl_5</t>
+  </si>
+  <si>
+    <t>mdl_4</t>
+  </si>
+  <si>
+    <t>mdl_3</t>
+  </si>
+  <si>
+    <t>mdl_2</t>
+  </si>
+  <si>
+    <t>mdl_1</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -728,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -780,6 +1012,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DFE5E-4DF0-47AD-924B-E2669ED30C29}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3063,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4E5CCA-EB7E-4E83-9B75-BA5B6CD1F254}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3101,7 +3341,7 @@
         <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>48</v>
@@ -3130,7 +3370,7 @@
         <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3156,7 +3396,7 @@
         <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3182,7 +3422,7 @@
         <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3208,7 +3448,7 @@
         <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3234,7 +3474,7 @@
         <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3260,7 +3500,7 @@
         <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3286,7 +3526,7 @@
         <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3312,7 +3552,7 @@
         <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3338,7 +3578,7 @@
         <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3364,7 +3604,7 @@
         <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -3390,7 +3630,7 @@
         <v>179</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3416,7 +3656,7 @@
         <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3442,7 +3682,7 @@
         <v>179</v>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3468,7 +3708,7 @@
         <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3494,7 +3734,7 @@
         <v>179</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3520,7 +3760,7 @@
         <v>179</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3546,7 +3786,7 @@
         <v>179</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3572,7 +3812,7 @@
         <v>179</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3598,7 +3838,7 @@
         <v>179</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3624,7 +3864,7 @@
         <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3650,7 +3890,7 @@
         <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -3676,7 +3916,7 @@
         <v>179</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -3702,7 +3942,7 @@
         <v>179</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3728,7 +3968,7 @@
         <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3754,7 +3994,7 @@
         <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -3780,7 +4020,7 @@
         <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -3806,7 +4046,7 @@
         <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -3832,7 +4072,7 @@
         <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3858,7 +4098,7 @@
         <v>179</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -3884,7 +4124,7 @@
         <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -3910,7 +4150,7 @@
         <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -3936,12 +4176,12 @@
         <v>180</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B34">
         <v>4.5</v>
@@ -3962,12 +4202,12 @@
         <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B35">
         <v>4.5</v>
@@ -3988,7 +4228,7 @@
         <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4005,7 +4245,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
         <v>187</v>
@@ -4014,10 +4254,10 @@
         <v>186</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I36" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4034,7 +4274,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
         <v>187</v>
@@ -4043,10 +4283,10 @@
         <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4063,7 +4303,7 @@
         <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -4072,10 +4312,10 @@
         <v>186</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I38" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4092,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
         <v>187</v>
@@ -4101,10 +4341,10 @@
         <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4121,7 +4361,7 @@
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -4130,15 +4370,15 @@
         <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -4150,24 +4390,24 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G41" t="s">
         <v>186</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -4179,24 +4419,24 @@
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G42" t="s">
         <v>186</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I42" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -4208,24 +4448,24 @@
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
         <v>186</v>
       </c>
       <c r="H43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I43" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -4237,22 +4477,2141 @@
         <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
         <v>186</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I44" t="s">
-        <v>212</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>600</v>
+      </c>
+      <c r="D45">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" t="s">
+        <v>218</v>
+      </c>
+      <c r="I45" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC307-99C1-4162-8EF6-5A4761107011}">
+  <dimension ref="A1:D166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.3125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
+      <c r="B34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="B48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="5"/>
+      <c r="B58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="B60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+      <c r="B61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="5"/>
+      <c r="B64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="B65" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="5"/>
+      <c r="B66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="5"/>
+      <c r="B67" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
+      <c r="B69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="5"/>
+      <c r="B70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="2">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="5"/>
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="5"/>
+      <c r="B74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="5"/>
+      <c r="B76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="5"/>
+      <c r="B78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
+      <c r="B79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="5"/>
+      <c r="B81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="B82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="5"/>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+      <c r="B85" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="5"/>
+      <c r="B87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="5"/>
+      <c r="B89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="5"/>
+      <c r="B90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="5"/>
+      <c r="B92" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="5"/>
+      <c r="B93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="5"/>
+      <c r="B95" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="5"/>
+      <c r="B96" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="5"/>
+      <c r="B98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="5"/>
+      <c r="B99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="5"/>
+      <c r="B101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="5"/>
+      <c r="B102" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="5"/>
+      <c r="B104" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="5"/>
+      <c r="B105" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="5"/>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="5"/>
+      <c r="B108" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="5"/>
+      <c r="B110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="5"/>
+      <c r="B111" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="5"/>
+      <c r="B113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="5"/>
+      <c r="B114" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" s="5"/>
+      <c r="B116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" s="5"/>
+      <c r="B117" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" s="5"/>
+      <c r="B118" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="5"/>
+      <c r="B120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="5"/>
+      <c r="B121" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="2">
+        <v>5</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" s="5"/>
+      <c r="B123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" s="5"/>
+      <c r="B124" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="2">
+        <v>5</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" s="5"/>
+      <c r="B126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" s="5"/>
+      <c r="B127" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C127" s="2">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" s="5"/>
+      <c r="B129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" s="5"/>
+      <c r="B130" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C130" s="2">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" s="5"/>
+      <c r="B132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" s="5"/>
+      <c r="B133" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C133" s="2">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" s="5"/>
+      <c r="B135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" s="5"/>
+      <c r="B136" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" s="5"/>
+      <c r="B138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" s="5"/>
+      <c r="B140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" s="5"/>
+      <c r="B141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="2">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" s="5"/>
+      <c r="B144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="2">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" s="5"/>
+      <c r="B149" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" s="5"/>
+      <c r="B153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" s="5"/>
+      <c r="B157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="2">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" s="5"/>
+      <c r="B161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" s="2">
+        <v>5</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" s="5"/>
+      <c r="B166" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A148:A149"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>